--- a/Excel/Extras/handover_data.xlsx
+++ b/Excel/Extras/handover_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12b12b08b9581f4a/Desktop/Website_UI/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fd22e058e52b25e/Desktop/Version 3 (development)/Version 3 (development)/Excel/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1075A0EAF613C876C364406BA17F7FEA68624DEA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E25F695-BBE5-4495-B13D-73137A14C5C5}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_551162F2F613C876C3644008C1B690ED6580B91D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6E5EFD1-8E51-476E-9C12-DFE751F39D51}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
   <si>
     <t>FormID</t>
   </si>
@@ -85,31 +85,31 @@
     <t>Status</t>
   </si>
   <si>
-    <t>41dc32ba</t>
-  </si>
-  <si>
-    <t>1ba24c3d</t>
-  </si>
-  <si>
-    <t>acb4231d</t>
-  </si>
-  <si>
-    <t>43dbca12</t>
-  </si>
-  <si>
-    <t>ad23c41b</t>
-  </si>
-  <si>
-    <t>1dcb32a4</t>
-  </si>
-  <si>
-    <t>bbbbbbb</t>
-  </si>
-  <si>
-    <t>asdsads</t>
-  </si>
-  <si>
-    <t>jjjjjjj</t>
+    <t>24cd13ab</t>
+  </si>
+  <si>
+    <t>3c1ad4b2</t>
+  </si>
+  <si>
+    <t>a23db4c1</t>
+  </si>
+  <si>
+    <t>bc431a2d</t>
+  </si>
+  <si>
+    <t>c1d342ab</t>
+  </si>
+  <si>
+    <t>d2ac1b34</t>
+  </si>
+  <si>
+    <t>c34bda12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Electronics</t>
@@ -121,73 +121,100 @@
     <t>Drone Equipment</t>
   </si>
   <si>
-    <t>Bipod Controller Holder</t>
-  </si>
-  <si>
-    <t>DGPS Receiver</t>
-  </si>
-  <si>
-    <t>DGPS Controller</t>
-  </si>
-  <si>
-    <t>Tribrach</t>
-  </si>
-  <si>
-    <t>DGPS Contoller Bag</t>
-  </si>
-  <si>
-    <t>DGPS Extension Rod</t>
-  </si>
-  <si>
-    <t>DGPS External Power Cable</t>
-  </si>
-  <si>
-    <t>DGPS Battery</t>
-  </si>
-  <si>
-    <t>Trimble</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>TDC6002</t>
-  </si>
-  <si>
-    <t>58002007</t>
-  </si>
-  <si>
-    <t>R10/R12</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>6152x00853</t>
-  </si>
-  <si>
-    <t>T-20-18862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not visible </t>
-  </si>
-  <si>
-    <t>Not Visible</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>MA2014A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasdsa </t>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>Name3</t>
+  </si>
+  <si>
+    <t>Name4</t>
+  </si>
+  <si>
+    <t>Name5</t>
+  </si>
+  <si>
+    <t>Name6</t>
+  </si>
+  <si>
+    <t>Name7</t>
+  </si>
+  <si>
+    <t>Name8</t>
+  </si>
+  <si>
+    <t>Make1</t>
+  </si>
+  <si>
+    <t>Make2</t>
+  </si>
+  <si>
+    <t>Make3</t>
+  </si>
+  <si>
+    <t>Make4</t>
+  </si>
+  <si>
+    <t>Make5</t>
+  </si>
+  <si>
+    <t>Make6</t>
+  </si>
+  <si>
+    <t>Make7</t>
+  </si>
+  <si>
+    <t>Make8</t>
+  </si>
+  <si>
+    <t>Model1</t>
+  </si>
+  <si>
+    <t>Model2</t>
+  </si>
+  <si>
+    <t>Model3</t>
+  </si>
+  <si>
+    <t>Model4</t>
+  </si>
+  <si>
+    <t>Model5</t>
+  </si>
+  <si>
+    <t>Model6</t>
+  </si>
+  <si>
+    <t>Model7</t>
+  </si>
+  <si>
+    <t>Model8</t>
+  </si>
+  <si>
+    <t>Serial1</t>
+  </si>
+  <si>
+    <t>Serial2</t>
+  </si>
+  <si>
+    <t>Serial3</t>
+  </si>
+  <si>
+    <t>Serial4</t>
+  </si>
+  <si>
+    <t>Serial5</t>
+  </si>
+  <si>
+    <t>Serial6</t>
+  </si>
+  <si>
+    <t>Serial7</t>
+  </si>
+  <si>
+    <t>Serial8</t>
   </si>
   <si>
     <t>SOI ASSAM</t>
@@ -196,55 +223,58 @@
     <t>SOI TRIPURA</t>
   </si>
   <si>
-    <t>Umar</t>
+    <t>Not OK</t>
   </si>
   <si>
     <t>Good</t>
   </si>
   <si>
-    <t>Not OK</t>
+    <t>Damaged</t>
   </si>
   <si>
     <t>Not Ok</t>
   </si>
   <si>
-    <t>Damaged</t>
-  </si>
-  <si>
-    <t>sdsddsd</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>2024-05-15 17:30:52</t>
-  </si>
-  <si>
-    <t>2024-05-15 18:13:12</t>
-  </si>
-  <si>
-    <t>2024-05-16 16:30:21</t>
-  </si>
-  <si>
-    <t>2024-05-16 16:39:31</t>
-  </si>
-  <si>
-    <t>2024-05-16 16:41:04</t>
-  </si>
-  <si>
-    <t>2024-05-22 11:17:49</t>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>2024-05-29 11:11:53</t>
+  </si>
+  <si>
+    <t>2024-05-29 11:16:26</t>
+  </si>
+  <si>
+    <t>2024-05-29 11:16:43</t>
+  </si>
+  <si>
+    <t>2024-05-29 11:18:22</t>
+  </si>
+  <si>
+    <t>2024-05-29 11:21:29</t>
+  </si>
+  <si>
+    <t>2024-05-29 13:25:31</t>
+  </si>
+  <si>
+    <t>2024-05-31 11:10:23</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
   <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>Approved</t>
+    <t>umar</t>
+  </si>
+  <si>
+    <t>abbas</t>
+  </si>
+  <si>
+    <t>fahad</t>
+  </si>
+  <si>
+    <t>zafar</t>
   </si>
 </sst>
 </file>
@@ -330,9 +360,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -370,9 +400,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,26 +435,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,26 +470,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -652,32 +648,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.77734375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -748,9 +723,6 @@
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
@@ -761,52 +733,37 @@
         <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" s="2">
-        <v>45427.736520763887</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
@@ -814,55 +771,40 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S3" t="s">
-        <v>66</v>
-      </c>
-      <c r="T3" s="2">
-        <v>45434.704015115742</v>
+        <v>72</v>
       </c>
       <c r="U3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -870,104 +812,83 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="S4" t="s">
-        <v>67</v>
-      </c>
-      <c r="T4" s="2">
-        <v>45434.704015115742</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>67</v>
-      </c>
-      <c r="T5" s="2">
-        <v>45427.736520763887</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -976,42 +897,51 @@
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>65</v>
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
       </c>
       <c r="S6" t="s">
-        <v>68</v>
-      </c>
-      <c r="T6" s="2">
-        <v>45427.736520787039</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -1020,95 +950,95 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>65</v>
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
       </c>
       <c r="S7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T7" s="2">
-        <v>45434.704015115742</v>
+        <v>45441.578273287043</v>
       </c>
       <c r="U7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="S8" t="s">
-        <v>70</v>
-      </c>
-      <c r="T8" s="2">
-        <v>45434.704015115742</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -1117,96 +1047,84 @@
         <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S9" t="s">
-        <v>70</v>
-      </c>
-      <c r="T9" s="2">
-        <v>45427.736520787039</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="s">
+        <v>71</v>
       </c>
       <c r="S10" t="s">
-        <v>71</v>
-      </c>
-      <c r="T10" s="2">
-        <v>45434.704015115742</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
